--- a/data/case1/16/V1_4.xlsx
+++ b/data/case1/16/V1_4.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999997258717832</v>
+        <v>0.99999998592334682</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99674617648709507</v>
+        <v>0.99669140212205765</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98578404148028942</v>
+        <v>0.98551809631677578</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.98352667461454635</v>
+        <v>0.9831055530226056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.97843032813443598</v>
+        <v>0.97784806428916515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96749582737734474</v>
+        <v>0.96654978319956897</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96560495047517314</v>
+        <v>0.96446939120537689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96250713231791452</v>
+        <v>0.96091177114340476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.96164481279170644</v>
+        <v>0.95933827467407307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.9617257902244134</v>
+        <v>0.95870137559367397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.9617703146209623</v>
+        <v>0.95861966911459096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.96211160921496686</v>
+        <v>0.95872069495384604</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.96668972594107061</v>
+        <v>0.96227675793386558</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.96437270437617428</v>
+        <v>0.96033563166616087</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.96274490747234243</v>
+        <v>0.95907853516180064</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.96023916426933131</v>
+        <v>0.95657254633505717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.9565321304534532</v>
+        <v>0.95286519078581478</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.95542336376696357</v>
+        <v>0.95175634982148416</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99485698860767513</v>
+        <v>0.99477653131197519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98004467177570898</v>
+        <v>0.97973267653674267</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9767617336475255</v>
+        <v>0.97638913867856048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97244843027893313</v>
+        <v>0.97197379304648079</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.97874983077323918</v>
+        <v>0.97848354975501739</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96572948284309112</v>
+        <v>0.96546290311157201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95927264817224556</v>
+        <v>0.95900597243679464</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9666806785247426</v>
+        <v>0.96578667046076117</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96579741856397616</v>
+        <v>0.96497633669635696</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.96311569514430295</v>
+        <v>0.96258699581477658</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.96186541560593364</v>
+        <v>0.96155795352869988</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.96218053069137444</v>
+        <v>0.96200303515866814</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.97256769644154528</v>
+        <v>0.97266550763563142</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.97319925779729655</v>
+        <v>0.97334130959611731</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.97267928751074795</v>
+        <v>0.97282132173732738</v>
       </c>
     </row>
   </sheetData>
